--- a/biology/Botanique/Cystoseira_brachycarpa/Cystoseira_brachycarpa.xlsx
+++ b/biology/Botanique/Cystoseira_brachycarpa/Cystoseira_brachycarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carpodesmia brachycarpa (basionyme : Cystoseira brachycarpa) est une espèce d’algues brunes de la famille des Sargassaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Carpodesmia brachycarpa a pour synonymes selon AlgaeBase                                           (30 août 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Carpodesmia brachycarpa a pour synonymes selon AlgaeBase                                           (30 août 2020) :
 synonyme homotypique :
 Cystoseira brachycarpa J.Agardh, 1896 (basionyme) ;
 synonymes hétérotypiques :
@@ -547,9 +561,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la mer Méditerranée[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la mer Méditerranée.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se développe entre la surface et 25 m de profondeur, dans des milieux calmes[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se développe entre la surface et 25 m de profondeur, dans des milieux calmes.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (30 août 2020)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (30 août 2020) :
 variété Cystoseira brachycarpa var. claudiae (Giaccone) Giaccone, 1992
 variété Cystoseira brachycarpa var. balearica (Sauvageau) Giaccone, 1992 = Cystoseira brachycarpa J.Agardh, 1896</t>
         </is>
